--- a/biology/Médecine/Hôpital_triangulaire_de_Meilahti/Hôpital_triangulaire_de_Meilahti.xlsx
+++ b/biology/Médecine/Hôpital_triangulaire_de_Meilahti/Hôpital_triangulaire_de_Meilahti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_triangulaire_de_Meilahti</t>
+          <t>Hôpital_triangulaire_de_Meilahti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hôpital triangulaire de Meilahti (en finnois : Meilahden kolmiosairaala) est un hôpital du HUS situé à Meilahti à Helsinki en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hôpital triangulaire de Meilahti (en finnois : Meilahden kolmiosairaala) est un hôpital du HUS situé à Meilahti à Helsinki en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_triangulaire_de_Meilahti</t>
+          <t>Hôpital_triangulaire_de_Meilahti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital fait partie du centre hospitalier universitaire d'Helsinki[1] et du HUS.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital fait partie du centre hospitalier universitaire d'Helsinki et du HUS.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_triangulaire_de_Meilahti</t>
+          <t>Hôpital_triangulaire_de_Meilahti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le même quartier se trouvent la tour hospitalière de Meilahti, l'hôpital d'Haartman, la clinique de gynécologie, l'hôpital du parc, l'hôpital des yeux et des oreilles, la clinique d'oncologie, l'hôpital pour enfants et des bâtiments de la faculté de médecine de l'université d'Helsinki[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le même quartier se trouvent la tour hospitalière de Meilahti, l'hôpital d'Haartman, la clinique de gynécologie, l'hôpital du parc, l'hôpital des yeux et des oreilles, la clinique d'oncologie, l'hôpital pour enfants et des bâtiments de la faculté de médecine de l'université d'Helsinki.
 </t>
         </is>
       </c>
